--- a/US002 - Motor UT v1.0.xlsx
+++ b/US002 - Motor UT v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnguyen399\Ass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnguyen399\Ass\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698FFD06-8C46-45BA-9D1D-11EF4B9134E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A78E1-9494-48CC-8DDD-29DAD0414355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{CE9A325B-E5FB-4AE1-A33B-70AC8838E9BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{CE9A325B-E5FB-4AE1-A33B-70AC8838E9BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Amendment History" sheetId="2" r:id="rId1"/>
@@ -1571,20 +1571,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>4779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>65867</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>86308</xdr:rowOff>
+      <xdr:rowOff>142471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950404F8-C229-4233-AEEF-C60A5138EDA2}"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49DF79D-6122-4C2A-8EA2-20F49C888CCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,8 +1600,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13449300"/>
-          <a:ext cx="4298950" cy="2105608"/>
+          <a:off x="0" y="13447729"/>
+          <a:ext cx="4333067" cy="2163342"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2412,7 +2412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -2440,7 +2440,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2795,7 +2795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B56CB10-AC9E-4A4E-B977-C00F6A83300E}">
   <dimension ref="A1:A90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2834,7 +2836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75880CF-75F4-4AC6-9802-70844D859E14}">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
